--- a/Outputs/Indo-Pacific ODA programmes - Nov21.xlsx
+++ b/Outputs/Indo-Pacific ODA programmes - Nov21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_3669D523989792695F4A5BD05DA75E8E73B4BA69" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D2AC547-645E-4AD3-9FF5-7FF5BBB8AEB2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_3669D523989792695F4A5BD05DA75E8E73B4BA69" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30071F82-A83A-4DD7-BC5E-4D923D1EC36F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cambodia" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Indonesia!$A$1:$J$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Philippines!$A$1:$J$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Thailand!$A$1:$J$70</definedName>
   </definedNames>
   <calcPr calcId="0" refMode="R1C1"/>
@@ -7048,10 +7049,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7098,7 +7100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="275.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="275.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -7364,7 +7366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -7392,7 +7394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="163.19999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="163.19999999999999" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -7506,7 +7508,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -7732,7 +7734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="346.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="346.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="71.400000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -7848,7 +7850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="30.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -7874,7 +7876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -8020,7 +8022,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="193.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="408" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="408" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>212</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -8340,7 +8342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="30.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="30.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="214.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="214.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>128</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -8452,7 +8454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -8510,7 +8512,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>270</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="214.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="214.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -8654,7 +8656,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -8684,7 +8686,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>128</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="397.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="397.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>128</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -8802,7 +8804,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="30.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -8922,7 +8924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -8952,7 +8954,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="183.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="183.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -9036,7 +9038,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="112.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="112.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -9064,7 +9066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -9092,7 +9094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="40.799999999999997" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -9176,7 +9178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
@@ -9296,7 +9298,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="214.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="214.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>10</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>128</v>
       </c>
@@ -10809,6 +10811,13 @@
       <c r="J200" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J79" xr:uid="{DA432201-3B07-48CA-A8B1-8ACF119264C8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FCDO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -26214,7 +26223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
